--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_4_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_4_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2054246105245103</v>
+        <v>0.6414914062992021</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2054246105245103</v>
+        <v>0.6414914062992021</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>7.023759871515547</v>
+        <v>3.553648607586148</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-3.0565242888417155, 17.10404403187281]</t>
+          <t>[-6.246690249881236, 13.353987465053532]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1673633967318711</v>
+        <v>0.4689778693617239</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1673633967318711</v>
+        <v>0.4689778693617239</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.144684410317002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.025263860455391, 1.8616845354606184]</t>
+          <t>[-4.276842851733853, 1.9874740310998495]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4630076189577399</v>
+        <v>0.4655031077339897</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4630076189577399</v>
+        <v>0.4655031077339897</v>
       </c>
       <c r="T2" t="n">
-        <v>14.80995680965328</v>
+        <v>16.38391159361173</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[9.33880304622712, 20.281110573079445]</t>
+          <t>[11.089942205486155, 21.67788098173731]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.015688109979763e-06</v>
+        <v>1.40548073845892e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>2.015688109979763e-06</v>
+        <v>1.40548073845892e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>3.91003003003005</v>
+        <v>4.226626626626658</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.728888888888921</v>
+        <v>-7.338538538538602</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.54894894894902</v>
+        <v>15.79179179179192</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6300275924651491</v>
+        <v>0.2729936248406482</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6300275924651491</v>
+        <v>0.2729936248406482</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.497270440590724</v>
+        <v>5.783918904366737</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-6.599714835797902, 13.594255716979351]</t>
+          <t>[-3.2999700344303795, 14.867807843163853]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.4890035368493484</v>
+        <v>0.2062604223717879</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4890035368493484</v>
+        <v>0.2062604223717879</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.5534737808126167</v>
+        <v>-0.2390000417145393</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.6919216970114292, 2.584974135386196]</t>
+          <t>[-3.094421592725081, 2.6164215092960026]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.7241047955990063</v>
+        <v>0.8668814177409156</v>
       </c>
       <c r="S3" t="n">
-        <v>0.7241047955990063</v>
+        <v>0.8668814177409156</v>
       </c>
       <c r="T3" t="n">
-        <v>13.35236190603613</v>
+        <v>16.99892386758249</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.11618093262739, 18.588542879444876]</t>
+          <t>[11.885809827360774, 22.1120379078042]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.841256113026105e-06</v>
+        <v>2.880972060914644e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>5.841256113026105e-06</v>
+        <v>2.880972060914644e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>2.000480480480491</v>
+        <v>0.8824824824824908</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.343153153153198</v>
+        <v>-9.660860860860934</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.34411411411418</v>
+        <v>11.42582582582592</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6451791858012822</v>
+        <v>0.04657578072868529</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6451791858012822</v>
+        <v>0.04657578072868529</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.887778859677639</v>
+        <v>7.963252930198664</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-5.607299776027566, 11.382857495382844]</t>
+          <t>[-0.3666967602221547, 16.293202620619482]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4970665969420707</v>
+        <v>0.06050800613999008</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4970665969420707</v>
+        <v>0.06050800613999008</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-0.7421580242714629</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.1321849317487365, 2.144710900648888]</t>
+          <t>[-3.4403427057329674, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.526879943423483</v>
+        <v>0.5823243992678366</v>
       </c>
       <c r="S4" t="n">
-        <v>0.526879943423483</v>
+        <v>0.5823243992678366</v>
       </c>
       <c r="T4" t="n">
-        <v>15.69336625482987</v>
+        <v>13.81746890164607</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[11.344423907377191, 20.042308602282546]</t>
+          <t>[9.380958977950101, 18.253978825342045]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.087575389277731e-09</v>
+        <v>1.227216286370236e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.087575389277731e-09</v>
+        <v>1.227216286370236e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>3.591771771771789</v>
+        <v>2.740340340340364</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.751861861861899</v>
+        <v>-7.222422422422481</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.93540540540548</v>
+        <v>12.70310310310321</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5256240168626536</v>
+        <v>0.926772985466207</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5256240168626536</v>
+        <v>0.926772985466207</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.499840704183123</v>
+        <v>1.347860876315044</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-6.032019004588754, 15.031700412955]</t>
+          <t>[-8.142471264654304, 10.838193017284393]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.3940503133118021</v>
+        <v>0.7761508381896931</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3940503133118021</v>
+        <v>0.7761508381896931</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6603948521059619</v>
+        <v>0.2452895164965003</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.471763589310889, 3.792553293522813]</t>
+          <t>[-2.893158399702312, 3.3837374326953125]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6731078855633443</v>
+        <v>0.875622084363856</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6731078855633443</v>
+        <v>0.875622084363856</v>
       </c>
       <c r="T5" t="n">
-        <v>14.1808069588851</v>
+        <v>10.85283281770243</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.560656175569454, 19.800957742200744]</t>
+          <t>[5.868088979638117, 15.837576655766735]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.997687900689442e-06</v>
+        <v>6.895719738553296e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>6.997687900689442e-06</v>
+        <v>6.895719738553296e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>20.32306306306317</v>
+        <v>22.29429429429447</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.002162162162209</v>
+        <v>10.70590590590599</v>
       </c>
       <c r="Z5" t="n">
-        <v>31.64396396396413</v>
+        <v>33.88268268268295</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3584942661596056</v>
+        <v>0.09209844226269615</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3584942661596056</v>
+        <v>0.09209844226269615</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.071889909354542</v>
+        <v>7.380419106190827</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.4595425100698147, 11.6033223287789]</t>
+          <t>[-1.5312161837684926, 16.292054396150146]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.2819819603909979</v>
+        <v>0.102253578382109</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2819819603909979</v>
+        <v>0.102253578382109</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2264210921506153</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.358579533567467, 2.905737349266236]</t>
+          <t>[-1.534631846798618, 2.452895164965005]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8848891126036755</v>
+        <v>0.6450157163966281</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8848891126036755</v>
+        <v>0.6450157163966281</v>
       </c>
       <c r="T6" t="n">
-        <v>13.05430922588875</v>
+        <v>11.22115559978384</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[8.95458607279226, 17.15403237898525]</t>
+          <t>[6.494969002316309, 15.947342197251366]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.587262929042993e-08</v>
+        <v>1.894086498555048e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>7.587262929042993e-08</v>
+        <v>1.894086498555048e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.8183783783783802</v>
+        <v>21.50470470470488</v>
       </c>
       <c r="Y6" t="n">
-        <v>-10.50252252252258</v>
+        <v>14.14294294294305</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.13927927927934</v>
+        <v>28.8664664664667</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01477748582364402</v>
+        <v>0.4297513198146932</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01477748582364402</v>
+        <v>0.4297513198146932</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>10.5526932279797</v>
+        <v>5.623096203883553</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[1.2851981586255476, 19.820188297333843]</t>
+          <t>[-5.415085970932977, 16.661278378700082]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.02654836608621292</v>
+        <v>0.3103617795187343</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02654836608621292</v>
+        <v>0.3103617795187343</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5094474573388847</v>
+        <v>1.239026532046426</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, 1.6478423928739243]</t>
+          <t>[-1.8931319093704246, 4.371184973463276]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.372207007462253</v>
+        <v>0.4297835901198463</v>
       </c>
       <c r="S7" t="n">
-        <v>0.372207007462253</v>
+        <v>0.4297835901198463</v>
       </c>
       <c r="T7" t="n">
-        <v>15.28904948155453</v>
+        <v>16.36362887706041</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.306789206713827, 20.27130975639523]</t>
+          <t>[10.340354917627689, 22.386902836493125]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.682945380832024e-07</v>
+        <v>1.885223656739043e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.682945380832024e-07</v>
+        <v>1.885223656739043e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>20.86864864864875</v>
+        <v>18.62502502502517</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.75402402402411</v>
+        <v>7.059859859859918</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.98327327327339</v>
+        <v>30.19019019019043</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6405550790425691</v>
+        <v>0.1537460079649128</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6405550790425691</v>
+        <v>0.1537460079649128</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>3.34037533874762</v>
+        <v>7.232913333031032</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.252069572511964, 12.932820250007204]</t>
+          <t>[-2.646742248218473, 17.112568914280537]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.4866830866685572</v>
+        <v>0.1473015812245744</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4866830866685572</v>
+        <v>0.1473015812245744</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5723422051585008</v>
+        <v>0.7107106503616549</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.566105711040312, 3.7107901213573133]</t>
+          <t>[-2.3774214675814647, 3.7988427683047745]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.71511598424732</v>
+        <v>0.6452181498457139</v>
       </c>
       <c r="S8" t="n">
-        <v>0.71511598424732</v>
+        <v>0.6452181498457139</v>
       </c>
       <c r="T8" t="n">
-        <v>13.86096337351468</v>
+        <v>15.49035272686057</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.813273477929089, 18.908653269100277]</t>
+          <t>[10.271393055167957, 20.709312398553195]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.543943855875085e-06</v>
+        <v>3.365685978806709e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.543943855875085e-06</v>
+        <v>3.365685978806709e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>20.64132132132142</v>
+        <v>20.57577577577594</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.297687687687736</v>
+        <v>9.173173173173248</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.98495495495511</v>
+        <v>31.97837837837864</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5524912281025989</v>
+        <v>0.2246224000646504</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5524912281025989</v>
+        <v>0.2246224000646504</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>3.675980020139823</v>
+        <v>6.2575621969844</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-5.322187753420996, 12.674147793700643]</t>
+          <t>[-3.336171727567507, 15.851296121536308]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.4149537551924078</v>
+        <v>0.1956024980691167</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4149537551924078</v>
+        <v>0.1956024980691167</v>
       </c>
       <c r="P9" t="n">
-        <v>1.163552834662886</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.9560266571900424, 4.283132326515814]</t>
+          <t>[-2.3459740936716575, 3.7925532935228135]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.4564262597591462</v>
+        <v>0.6373425173770331</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4564262597591462</v>
+        <v>0.6373425173770331</v>
       </c>
       <c r="T9" t="n">
-        <v>13.98418284761464</v>
+        <v>13.70410262822237</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.312224730344266, 18.65614096488501]</t>
+          <t>[8.63207180066225, 18.776133455782492]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.831091825417076e-07</v>
+        <v>2.085826135145297e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>2.831091825417076e-07</v>
+        <v>2.085826135145297e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>18.50444444444454</v>
+        <v>20.5293293293295</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.229009009009046</v>
+        <v>9.196396396396471</v>
       </c>
       <c r="Z9" t="n">
-        <v>29.77987987988003</v>
+        <v>31.86226226226252</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.71000000000011</v>
+        <v>23.20000000000019</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.44425964588461</v>
+        <v>0.3046926440420488</v>
       </c>
       <c r="I10" t="n">
-        <v>0.44425964588461</v>
+        <v>0.3046926440420488</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.020957606955368</v>
+        <v>4.856409513315265</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-4.506183784520046, 12.548098998430781]</t>
+          <t>[-2.924987464742143, 12.637806491372674]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.3473141059122953</v>
+        <v>0.2152346293856851</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3473141059122953</v>
+        <v>0.2152346293856851</v>
       </c>
       <c r="P10" t="n">
-        <v>2.056658253701426</v>
+        <v>-0.1635263443310002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 5.195106169900238]</t>
+          <t>[-3.295684785747851, 2.9686320970858504]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.1935558834888806</v>
+        <v>0.9167209409550294</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1935558834888806</v>
+        <v>0.9167209409550294</v>
       </c>
       <c r="T10" t="n">
-        <v>15.01626651175277</v>
+        <v>13.92288522425484</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[10.600212363684328, 19.432320659821208]</t>
+          <t>[9.426168291616221, 18.419602156893458]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.708707308978319e-08</v>
+        <v>1.391900310565575e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.708707308978319e-08</v>
+        <v>1.391900310565575e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>15.27639639639647</v>
+        <v>0.6038038038038103</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.932762762762785</v>
+        <v>-10.96136136136145</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.62003003003016</v>
+        <v>12.16896896896907</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2097420419401039</v>
+        <v>0.3669029785402035</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2097420419401039</v>
+        <v>0.3669029785402035</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.288693741444019</v>
+        <v>4.913607651970746</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.1232606483296834, 15.700648131217722]</t>
+          <t>[-3.7725784767838677, 13.59979378072536]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1851266440244053</v>
+        <v>0.2605903018927753</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1851266440244053</v>
+        <v>0.2605903018927753</v>
       </c>
       <c r="P11" t="n">
-        <v>1.025184389459732</v>
+        <v>1.805079262422964</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.1069740519571187, 4.157342830876583]</t>
+          <t>[-1.2264475824825016, 4.83660610732843]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5131047075622261</v>
+        <v>0.2367001824229178</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5131047075622261</v>
+        <v>0.2367001824229178</v>
       </c>
       <c r="T11" t="n">
-        <v>13.37340811438849</v>
+        <v>10.53769071589901</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[8.428098605349017, 18.318717623427954]</t>
+          <t>[5.714100235385496, 15.361281196412532]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.052493034421232e-06</v>
+        <v>6.572822137540513e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>2.052493034421232e-06</v>
+        <v>6.572822137540513e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>19.54014014014032</v>
+        <v>16.59907907907922</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.90020020020027</v>
+        <v>5.362062062062106</v>
       </c>
       <c r="Z11" t="n">
-        <v>31.18008008008036</v>
+        <v>27.83609609609633</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5112100732264888</v>
+        <v>0.5551530821377846</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5112100732264888</v>
+        <v>0.5551530821377846</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>4.128212398359591</v>
+        <v>3.742471023471226</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-5.401807764133525, 13.658232560852706]</t>
+          <t>[-5.6984336462679925, 13.183375693210444]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.3875842636341065</v>
+        <v>0.4288255947061295</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3875842636341065</v>
+        <v>0.4288255947061295</v>
       </c>
       <c r="P12" t="n">
-        <v>1.037763339023655</v>
+        <v>1.012605439895809</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.1006845771751568, 4.1762112552224675]</t>
+          <t>[-2.125842476303003, 4.1510533560946214]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5088198280178009</v>
+        <v>0.5190986734259915</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5088198280178009</v>
+        <v>0.5190986734259915</v>
       </c>
       <c r="T12" t="n">
-        <v>13.50818155172056</v>
+        <v>13.75620970872269</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.506807967255163, 18.50955513618596]</t>
+          <t>[8.911873361807205, 18.60054605563817]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.100116126335649e-06</v>
+        <v>8.134435960371889e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>2.100116126335649e-06</v>
+        <v>8.134435960371889e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>19.49339339339357</v>
+        <v>19.53655655655673</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.830080080080153</v>
+        <v>7.903213213213281</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.15670670670699</v>
+        <v>31.16989989990017</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01126178387873056</v>
+        <v>0.09027568477146874</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01126178387873056</v>
+        <v>0.09027568477146874</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>9.729323791121367</v>
+        <v>7.113058531903334</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[1.2883856942899463, 18.170261887952787]</t>
+          <t>[-1.2389317028110458, 15.465048766617715]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.02484448258454508</v>
+        <v>0.09316352318816268</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02484448258454508</v>
+        <v>0.09316352318816268</v>
       </c>
       <c r="P13" t="n">
-        <v>2.345974093671658</v>
+        <v>2.207605648468503</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.6163950189641185, 3.0755531683791966]</t>
+          <t>[-0.6541053773240009, 5.069316674261007]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>6.112568118332717e-08</v>
+        <v>0.12725274380722</v>
       </c>
       <c r="S13" t="n">
-        <v>6.112568118332717e-08</v>
+        <v>0.12725274380722</v>
       </c>
       <c r="T13" t="n">
-        <v>13.10498531217936</v>
+        <v>12.10800681536771</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[8.705207526880493, 17.504763097478236]</t>
+          <t>[7.6264224666041045, 16.589591164131306]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.131785057952641e-07</v>
+        <v>2.088270636857459e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.131785057952641e-07</v>
+        <v>2.088270636857459e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>14.63173173173186</v>
+        <v>15.10702702702716</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.92042042042053</v>
+        <v>4.499469469469513</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.3430430430432</v>
+        <v>25.71458458458481</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3923198745392877</v>
+        <v>0.3073132243275325</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3923198745392877</v>
+        <v>0.3073132243275325</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.564905534452069</v>
+        <v>6.303092253548217</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-3.2582421119812417, 10.38805318088538]</t>
+          <t>[-4.377311422094593, 16.983495929191026]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2982739490749839</v>
+        <v>0.2408191962832273</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2982739490749839</v>
+        <v>0.2408191962832273</v>
       </c>
       <c r="P14" t="n">
-        <v>2.157289850212811</v>
+        <v>1.993763505881811</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.9811580659860013, 5.295737766411623]</t>
+          <t>[-1.0817896624973864, 5.069316674261008]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1730497315060022</v>
+        <v>0.1983019871407681</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1730497315060022</v>
+        <v>0.1983019871407681</v>
       </c>
       <c r="T14" t="n">
-        <v>10.99277009467941</v>
+        <v>13.76792158027243</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.340045228128738, 14.645494961230078]</t>
+          <t>[8.052778213700748, 19.48306494684411]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>2.531247722536989e-07</v>
+        <v>1.503156898263747e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>2.531247722536989e-07</v>
+        <v>1.503156898263747e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>15.33293293293307</v>
+        <v>15.89967967967982</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.669619619619652</v>
+        <v>4.499469469469506</v>
       </c>
       <c r="Z14" t="n">
-        <v>26.99624624624649</v>
+        <v>27.29988988989013</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.384206268339145</v>
+        <v>0.8283543683337107</v>
       </c>
       <c r="I15" t="n">
-        <v>0.384206268339145</v>
+        <v>0.8283543683337107</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.997111175077253</v>
+        <v>2.297290530771774</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-4.421004428435964, 14.415226778590469]</t>
+          <t>[-8.176110042079852, 12.770691103623403]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.2909252489094485</v>
+        <v>0.6607613376370303</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2909252489094485</v>
+        <v>0.6607613376370303</v>
       </c>
       <c r="P15" t="n">
-        <v>2.974921571867812</v>
+        <v>2.685605731897581</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.16352634433100022, 6.113369488066624]</t>
+          <t>[-0.4528421843012316, 5.824053648096393]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.06263035336346046</v>
+        <v>0.09166519059635925</v>
       </c>
       <c r="S15" t="n">
-        <v>0.06263035336346046</v>
+        <v>0.09166519059635925</v>
       </c>
       <c r="T15" t="n">
-        <v>12.92545525450893</v>
+        <v>15.62415381998397</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[7.774626381414288, 18.07628412760358]</t>
+          <t>[10.259188601980448, 20.9891190379875]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.679044268904534e-06</v>
+        <v>4.941466680286055e-07</v>
       </c>
       <c r="W15" t="n">
-        <v>7.679044268904534e-06</v>
+        <v>4.941466680286055e-07</v>
       </c>
       <c r="X15" t="n">
-        <v>12.29439439439451</v>
+        <v>13.33521521521533</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.6310810810810885</v>
+        <v>1.701871871871887</v>
       </c>
       <c r="Z15" t="n">
-        <v>23.95770770770793</v>
+        <v>24.96855855855878</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4847068542063724</v>
+        <v>0.2936235239350777</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4847068542063724</v>
+        <v>0.2936235239350777</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>4.249672823106366</v>
+        <v>5.664675973684691</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-4.978217825890807, 13.477563472103538]</t>
+          <t>[-4.179523779075627, 15.508875726445009]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.358592303256676</v>
+        <v>0.2525771788339264</v>
       </c>
       <c r="O16" t="n">
-        <v>0.358592303256676</v>
+        <v>0.2525771788339264</v>
       </c>
       <c r="P16" t="n">
-        <v>2.861711025792504</v>
+        <v>2.220184598032426</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.27044741562434726, 5.993869467209355]</t>
+          <t>[-0.9182633181663862, 5.358632514231238]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.07234035458720789</v>
+        <v>0.161112022658142</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07234035458720789</v>
+        <v>0.161112022658142</v>
       </c>
       <c r="T16" t="n">
-        <v>11.2987535349577</v>
+        <v>13.31283174701097</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[6.2518721556080035, 16.345634914307396]</t>
+          <t>[8.251151134247944, 18.374512359774]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>4.621824028094856e-05</v>
+        <v>3.397764401169567e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>4.621824028094856e-05</v>
+        <v>3.397764401169567e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>12.71511511511523</v>
+        <v>15.06040040040053</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.075175175175186</v>
+        <v>3.427057057057088</v>
       </c>
       <c r="Z16" t="n">
-        <v>24.35505505505528</v>
+        <v>26.69374374374398</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2081611429634305</v>
+        <v>0.8751803726518448</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2081611429634305</v>
+        <v>0.8751803726518448</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>6.181907557677107</v>
+        <v>1.43206101873436</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-3.302265968499036, 15.66608108385325]</t>
+          <t>[-5.950659451452596, 8.814781488921316]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.1959000017358976</v>
+        <v>0.6978735124138105</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1959000017358976</v>
+        <v>0.6978735124138105</v>
       </c>
       <c r="P17" t="n">
-        <v>2.572395185822273</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-0.4339737599553475, 5.578764131599893]</t>
+          <t>[-1.0692107129334634, 5.207685119464163]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.09168829601965967</v>
+        <v>0.1908959470323333</v>
       </c>
       <c r="S17" t="n">
-        <v>0.09168829601965967</v>
+        <v>0.1908959470323333</v>
       </c>
       <c r="T17" t="n">
-        <v>13.7049335907683</v>
+        <v>12.7712187653864</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.79185123050155, 18.61801595103504]</t>
+          <t>[8.857910407190769, 16.684527123582026]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>1.147010004531879e-06</v>
+        <v>4.388897290041882e-08</v>
       </c>
       <c r="W17" t="n">
-        <v>1.147010004531879e-06</v>
+        <v>4.388897290041882e-08</v>
       </c>
       <c r="X17" t="n">
-        <v>13.79029029029042</v>
+        <v>15.61991991992005</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.617817817817841</v>
+        <v>3.986576576576608</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.96276276276299</v>
+        <v>27.2532632632635</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2502602771015542</v>
+        <v>0.1242580701891373</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2502602771015542</v>
+        <v>0.1242580701891373</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>5.281833554553227</v>
+        <v>6.830057946559354</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-2.9846728964619746, 13.548340005568429]</t>
+          <t>[-2.3677582755706332, 16.02787416868934]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.2047101787135135</v>
+        <v>0.1417332903210236</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2047101787135135</v>
+        <v>0.1417332903210236</v>
       </c>
       <c r="P18" t="n">
-        <v>2.094395102393196</v>
+        <v>2.371131992799503</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-1.0314738642416934, 5.220264069028085]</t>
+          <t>[-0.754736973835386, 5.497000959434392]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.183930186440062</v>
+        <v>0.1335611932641327</v>
       </c>
       <c r="S18" t="n">
-        <v>0.183930186440062</v>
+        <v>0.1335611932641327</v>
       </c>
       <c r="T18" t="n">
-        <v>13.3236994886924</v>
+        <v>13.52434505165954</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[8.900757798386337, 17.746641178998466]</t>
+          <t>[8.863058862530721, 18.185631240788368]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2.480574397001334e-07</v>
+        <v>5.323501164333777e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>2.480574397001334e-07</v>
+        <v>5.323501164333777e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>15.56666666666681</v>
+        <v>14.50088088088101</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.950100100100135</v>
+        <v>2.914164164164191</v>
       </c>
       <c r="Z18" t="n">
-        <v>27.18323323323348</v>
+        <v>26.08759759759782</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1681900003707124</v>
+        <v>0.1273275102780871</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1681900003707124</v>
+        <v>0.1273275102780871</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>5.968004284173475</v>
+        <v>7.368476085373448</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-1.7321240796987407, 13.66813264804569]</t>
+          <t>[-1.9871035786772069, 16.724055749424103]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1255212440360471</v>
+        <v>0.1196713394173226</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1255212440360471</v>
+        <v>0.1196713394173226</v>
       </c>
       <c r="P19" t="n">
-        <v>2.974921571867812</v>
+        <v>-2.050368778919465</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1.1509738850989635, 4.79886925863666]</t>
+          <t>[-4.9561061281856995, 0.8553685703467702]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.001979592379915074</v>
+        <v>0.1621497910900773</v>
       </c>
       <c r="S19" t="n">
-        <v>0.001979592379915074</v>
+        <v>0.1621497910900773</v>
       </c>
       <c r="T19" t="n">
-        <v>10.63891609297066</v>
+        <v>12.09494420088151</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[6.173298111276614, 15.104534074664707]</t>
+          <t>[7.089662090171387, 17.100226311591626]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.794274023514397e-05</v>
+        <v>1.43073793452686e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>1.794274023514397e-05</v>
+        <v>1.43073793452686e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>12.29439439439451</v>
+        <v>7.600140140140205</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.516116116116169</v>
+        <v>-3.170610610610638</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.07267267267284</v>
+        <v>18.37089089089105</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.35000000000021</v>
+        <v>23.2900000000002</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2099935413094705</v>
+        <v>0.4945504401812416</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2099935413094705</v>
+        <v>0.4945504401812416</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>5.512874993754167</v>
+        <v>3.652039334874057</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-2.3417154785968695, 13.367465466105203]</t>
+          <t>[-4.2547444674652795, 11.558823137213395]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.164350839496558</v>
+        <v>0.3571860550053443</v>
       </c>
       <c r="O20" t="n">
-        <v>0.164350839496558</v>
+        <v>0.3571860550053443</v>
       </c>
       <c r="P20" t="n">
-        <v>-2.905737349266235</v>
+        <v>-3.132158441416851</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-5.962422093299547, 0.1509473947670772]</t>
+          <t>[-6.264316882833702, 0.0]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.06190874973118232</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="S20" t="n">
-        <v>0.06190874973118232</v>
+        <v>0.05000000044112762</v>
       </c>
       <c r="T20" t="n">
-        <v>13.45689739766318</v>
+        <v>11.29538310865702</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[9.039059396080544, 17.874735399245814]</t>
+          <t>[6.885057189420896, 15.705709027893139]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>1.96748582537154e-07</v>
+        <v>5.41965578282344e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>1.96748582537154e-07</v>
+        <v>5.41965578282344e-06</v>
       </c>
       <c r="X20" t="n">
-        <v>10.79849849849859</v>
+        <v>11.61003003003013</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.5609609609609674</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.15795795795815</v>
+        <v>23.22006006006026</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_4_sawtooth_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.5/cosinor_per_day_fixed_period_4_sawtooth_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6414914062992021</v>
+        <v>0.2059058610465256</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6414914062992021</v>
+        <v>0.2059058610465256</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.553648607586148</v>
+        <v>7.503265188156267</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-6.246690249881236, 13.353987465053532]</t>
+          <t>[-2.7899209867229215, 17.796451363035455]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.4689778693617239</v>
+        <v>0.1490083958301347</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4689778693617239</v>
+        <v>0.1490083958301347</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.144684410317002</v>
+        <v>-1.635263443310002</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.276842851733853, 1.9874740310998495]</t>
+          <t>[-4.566158691704083, 1.2956318050840787]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4655031077339897</v>
+        <v>0.2670788968447222</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4655031077339897</v>
+        <v>0.2670788968447222</v>
       </c>
       <c r="T2" t="n">
-        <v>16.38391159361173</v>
+        <v>16.86225079473186</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11.089942205486155, 21.67788098173731]</t>
+          <t>[11.046350253839517, 22.678151335624204]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.40548073845892e-07</v>
+        <v>5.400232452323905e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.40548073845892e-07</v>
+        <v>5.400232452323905e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>4.226626626626658</v>
+        <v>6.048448448448497</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.338538538538602</v>
+        <v>-4.792232232232273</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.79179179179192</v>
+        <v>16.88912912912927</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2729936248406482</v>
+        <v>0.1748922683299103</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2729936248406482</v>
+        <v>0.1748922683299103</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>5.783918904366737</v>
+        <v>7.197103472142905</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.2999700344303795, 14.867807843163853]</t>
+          <t>[-3.2498946754783944, 17.644101619764204]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2062604223717879</v>
+        <v>0.1721080417825822</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2062604223717879</v>
+        <v>0.1721080417825822</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2390000417145393</v>
+        <v>-0.4780000834290776</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.094421592725081, 2.6164215092960026]</t>
+          <t>[-3.5158164031165047, 2.5598162362583494]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8668814177409156</v>
+        <v>0.7527707590644135</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8668814177409156</v>
+        <v>0.7527707590644135</v>
       </c>
       <c r="T3" t="n">
-        <v>16.99892386758249</v>
+        <v>16.8156760479059</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[11.885809827360774, 22.1120379078042]</t>
+          <t>[11.3857697581727, 22.245582337639107]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.880972060914644e-08</v>
+        <v>1.385869554670904e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.880972060914644e-08</v>
+        <v>1.385869554670904e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8824824824824908</v>
+        <v>1.768008008008024</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.660860860860934</v>
+        <v>-9.468148148148224</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.42582582582592</v>
+        <v>13.00416416416427</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04657578072868529</v>
+        <v>0.7271555153574816</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04657578072868529</v>
+        <v>0.7271555153574816</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.963252930198664</v>
+        <v>2.175752515162671</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.3666967602221547, 16.293202620619482]</t>
+          <t>[-4.988873687496081, 9.340378717821423]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.06050800613999008</v>
+        <v>0.5438521680515063</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06050800613999008</v>
+        <v>0.5438521680515063</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.7421580242714629</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.4403427057329674, 1.9560266571900415]</t>
+          <t>[-2.981211046649774, 3.2956847857478504]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.5823243992678366</v>
+        <v>0.9200725574242195</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823243992678366</v>
+        <v>0.9200725574242195</v>
       </c>
       <c r="T4" t="n">
-        <v>13.81746890164607</v>
+        <v>11.86994353376282</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.380958977950101, 18.253978825342045]</t>
+          <t>[7.9458432605593785, 15.794043806966261]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.227216286370236e-07</v>
+        <v>2.276266313216979e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>1.227216286370236e-07</v>
+        <v>2.276266313216979e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>2.740340340340364</v>
+        <v>22.65841841841861</v>
       </c>
       <c r="Y4" t="n">
-        <v>-7.222422422422481</v>
+        <v>11.05005005005014</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.70310310310321</v>
+        <v>34.26678678678707</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.926772985466207</v>
+        <v>0.5362009294238547</v>
       </c>
       <c r="I5" t="n">
-        <v>0.926772985466207</v>
+        <v>0.5362009294238547</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.347860876315044</v>
+        <v>3.747842089437748</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-8.142471264654304, 10.838193017284393]</t>
+          <t>[-5.4815015858279885, 12.977185764703485]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.7761508381896931</v>
+        <v>0.4177326403552106</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7761508381896931</v>
+        <v>0.4177326403552106</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2452895164965003</v>
+        <v>0.7861843477451931</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.893158399702312, 3.3837374326953125]</t>
+          <t>[-2.352263568453619, 3.924632263944005]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.875622084363856</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="S5" t="n">
-        <v>0.875622084363856</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="T5" t="n">
-        <v>10.85283281770243</v>
+        <v>14.21138947005893</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[5.868088979638117, 15.837576655766735]</t>
+          <t>[9.473196178980576, 18.949582761137286]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.895719738553296e-05</v>
+        <v>2.714437774553602e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>6.895719738553296e-05</v>
+        <v>2.714437774553602e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>22.29429429429447</v>
+        <v>20.33209209209226</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.70590590590599</v>
+        <v>8.723723723723799</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.88268268268295</v>
+        <v>31.94046046046073</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.09209844226269615</v>
+        <v>0.3755871568127126</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09209844226269615</v>
+        <v>0.3755871568127126</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>7.380419106190827</v>
+        <v>4.909744249974728</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.5312161837684926, 16.292054396150146]</t>
+          <t>[-3.9437775808863593, 13.763266080835816]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.102253578382109</v>
+        <v>0.2699540381383627</v>
       </c>
       <c r="O6" t="n">
-        <v>0.102253578382109</v>
+        <v>0.2699540381383627</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4591316590831935</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.534631846798618, 2.452895164965005]</t>
+          <t>[-3.12586896663489, 3.138447916198812]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6450157163966281</v>
+        <v>0.9967909334834222</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6450157163966281</v>
+        <v>0.9967909334834222</v>
       </c>
       <c r="T6" t="n">
-        <v>11.22115559978384</v>
+        <v>11.42815742687089</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.494969002316309, 15.947342197251366]</t>
+          <t>[6.412477759808077, 16.443837093933702]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.894086498555048e-05</v>
+        <v>3.563576749887609e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>1.894086498555048e-05</v>
+        <v>3.563576749887609e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>21.50470470470488</v>
+        <v>23.21673673673693</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.14294294294305</v>
+        <v>11.63163163163173</v>
       </c>
       <c r="Z6" t="n">
-        <v>28.8664664664667</v>
+        <v>34.80184184184213</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4297513198146932</v>
+        <v>0.2089373132728208</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4297513198146932</v>
+        <v>0.2089373132728208</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.623096203883553</v>
+        <v>4.494361400814976</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.415085970932977, 16.661278378700082]</t>
+          <t>[-1.8115004774004557, 10.800223279030408]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.3103617795187343</v>
+        <v>0.1580575849032224</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3103617795187343</v>
+        <v>0.1580575849032224</v>
       </c>
       <c r="P7" t="n">
-        <v>1.239026532046426</v>
+        <v>0.1572368695490383</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.8931319093704246, 4.371184973463276]</t>
+          <t>[-2.5409478119124658, 2.8554215510105423]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4297835901198463</v>
+        <v>0.9070875898021362</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4297835901198463</v>
+        <v>0.9070875898021362</v>
       </c>
       <c r="T7" t="n">
-        <v>16.36362887706041</v>
+        <v>12.88122074285851</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[10.340354917627689, 22.386902836493125]</t>
+          <t>[9.279535186614973, 16.48290629910204]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.885223656739043e-06</v>
+        <v>5.093929056343427e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.885223656739043e-06</v>
+        <v>5.093929056343427e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>18.62502502502517</v>
+        <v>22.65841841841861</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.059859859859918</v>
+        <v>12.67847847847859</v>
       </c>
       <c r="Z7" t="n">
-        <v>30.19019019019043</v>
+        <v>32.63835835835863</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1537460079649128</v>
+        <v>0.3455054143088766</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1537460079649128</v>
+        <v>0.3455054143088766</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>7.232913333031032</v>
+        <v>4.915209928852412</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.646742248218473, 17.112568914280537]</t>
+          <t>[-4.139275278305111, 13.969695136009936]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1473015812245744</v>
+        <v>0.2800577172808265</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1473015812245744</v>
+        <v>0.2800577172808265</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7107106503616549</v>
+        <v>0.3333421634439615</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.3774214675814647, 3.7988427683047745]</t>
+          <t>[-2.7988162779728896, 3.4655006048608126]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6452181498457139</v>
+        <v>0.8312406655961802</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6452181498457139</v>
+        <v>0.8312406655961802</v>
       </c>
       <c r="T8" t="n">
-        <v>15.49035272686057</v>
+        <v>12.52194083842201</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[10.271393055167957, 20.709312398553195]</t>
+          <t>[7.7295401590683905, 17.31434151777563]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.365685978806709e-07</v>
+        <v>3.819181062958421e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.365685978806709e-07</v>
+        <v>3.819181062958421e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>20.57577577577594</v>
+        <v>22.00704704704723</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.173173173173248</v>
+        <v>10.42194194194203</v>
       </c>
       <c r="Z8" t="n">
-        <v>31.97837837837864</v>
+        <v>33.59215215215244</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2246224000646504</v>
+        <v>0.2263761557173267</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2246224000646504</v>
+        <v>0.2263761557173267</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.2575621969844</v>
+        <v>5.197192539704354</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-3.336171727567507, 15.851296121536308]</t>
+          <t>[-2.907103284131071, 13.301488363539779]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1956024980691167</v>
+        <v>0.203083154597866</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1956024980691167</v>
+        <v>0.203083154597866</v>
       </c>
       <c r="P9" t="n">
-        <v>0.723289599925578</v>
+        <v>0.8113422468730391</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.3459740936716575, 3.7925532935228135]</t>
+          <t>[-2.308237244979889, 3.930921738725967]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6373425173770331</v>
+        <v>0.6029677937991069</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6373425173770331</v>
+        <v>0.6029677937991069</v>
       </c>
       <c r="T9" t="n">
-        <v>13.70410262822237</v>
+        <v>12.16204367000279</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.63207180066225, 18.776133455782492]</t>
+          <t>[7.946778419274324, 16.37730892073126]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.085826135145297e-06</v>
+        <v>5.949317234410501e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>2.085826135145297e-06</v>
+        <v>5.949317234410501e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>20.5293293293295</v>
+        <v>20.23903903903921</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.196396396396471</v>
+        <v>8.700460460460533</v>
       </c>
       <c r="Z9" t="n">
-        <v>31.86226226226252</v>
+        <v>31.77761761761789</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.20000000000019</v>
+        <v>23.24000000000019</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3046926440420488</v>
+        <v>0.02113695441940655</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3046926440420488</v>
+        <v>0.02113695441940655</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.856409513315265</v>
+        <v>8.757316821224956</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.924987464742143, 12.637806491372674]</t>
+          <t>[1.2004748200984139, 16.314158822351498]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.2152346293856851</v>
+        <v>0.0241167347262059</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2152346293856851</v>
+        <v>0.0241167347262059</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1635263443310002</v>
+        <v>0.2075526678047313</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.295684785747851, 2.9686320970858504]</t>
+          <t>[-1.0188949146777713, 1.4340002502872338]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.9167209409550294</v>
+        <v>0.7348040919636785</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9167209409550294</v>
+        <v>0.7348040919636785</v>
       </c>
       <c r="T10" t="n">
-        <v>13.92288522425484</v>
+        <v>12.23075415306672</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.426168291616221, 18.419602156893458]</t>
+          <t>[7.871977469709601, 16.589530836423837]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.391900310565575e-07</v>
+        <v>1.02431709003703e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>1.391900310565575e-07</v>
+        <v>1.02431709003703e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>0.6038038038038103</v>
+        <v>22.4723123123125</v>
       </c>
       <c r="Y10" t="n">
-        <v>-10.96136136136145</v>
+        <v>17.93597597597612</v>
       </c>
       <c r="Z10" t="n">
-        <v>12.16896896896907</v>
+        <v>27.00864864864888</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3669029785402035</v>
+        <v>0.9746903579688372</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3669029785402035</v>
+        <v>0.9746903579688372</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>4.913607651970746</v>
+        <v>0.8402549928549874</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-3.7725784767838677, 13.59979378072536]</t>
+          <t>[-9.192277176111169, 10.872787161821144]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.2605903018927753</v>
+        <v>0.8667985818778798</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2605903018927753</v>
+        <v>0.8667985818778798</v>
       </c>
       <c r="P11" t="n">
-        <v>1.805079262422964</v>
+        <v>1.389973926813503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.2264475824825016, 4.83660610732843]</t>
+          <t>[-1.7421845146033474, 4.522132368230353]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.2367001824229178</v>
+        <v>0.37617968332056</v>
       </c>
       <c r="S11" t="n">
-        <v>0.2367001824229178</v>
+        <v>0.37617968332056</v>
       </c>
       <c r="T11" t="n">
-        <v>10.53769071589901</v>
+        <v>13.01740388539257</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[5.714100235385496, 15.361281196412532]</t>
+          <t>[7.801241182581979, 18.233566588203168]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.572822137540513e-05</v>
+        <v>8.425202888906469e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>6.572822137540513e-05</v>
+        <v>8.425202888906469e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>16.59907907907922</v>
+        <v>18.23121121121138</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.362062062062106</v>
+        <v>6.561361361361424</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.83609609609633</v>
+        <v>29.90106106106134</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5551530821377846</v>
+        <v>0.3500154318498268</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5551530821377846</v>
+        <v>0.3500154318498268</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.742471023471226</v>
+        <v>4.99689129376059</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-5.6984336462679925, 13.183375693210444]</t>
+          <t>[-3.3746044146209266, 13.368387002142107]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.4288255947061295</v>
+        <v>0.2355722180852464</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4288255947061295</v>
+        <v>0.2355722180852464</v>
       </c>
       <c r="P12" t="n">
-        <v>1.012605439895809</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.125842476303003, 4.1510533560946214]</t>
+          <t>[-6.21400108457801, -0.02515789912784605]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5190986734259915</v>
+        <v>0.04824274440734144</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5190986734259915</v>
+        <v>0.04824274440734144</v>
       </c>
       <c r="T12" t="n">
-        <v>13.75620970872269</v>
+        <v>12.83104083522904</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[8.911873361807205, 18.60054605563817]</t>
+          <t>[7.923018835405326, 17.739062835052746]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.134435960371889e-07</v>
+        <v>3.782472336899545e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>8.134435960371889e-07</v>
+        <v>3.782472336899545e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>19.53655655655673</v>
+        <v>11.62298298298309</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.903213213213281</v>
+        <v>0.09373373373373362</v>
       </c>
       <c r="Z12" t="n">
-        <v>31.16989989990017</v>
+        <v>23.15223223223246</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09027568477146874</v>
+        <v>0.2036409019366222</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09027568477146874</v>
+        <v>0.2036409019366222</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>7.113058531903334</v>
+        <v>5.02881076094255</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.2389317028110458, 15.465048766617715]</t>
+          <t>[-1.7498945499696745, 11.807516071854774]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.09316352318816268</v>
+        <v>0.1421105497283293</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09316352318816268</v>
+        <v>0.1421105497283293</v>
       </c>
       <c r="P13" t="n">
-        <v>2.207605648468503</v>
+        <v>1.37739497724958</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 5.069316674261007]</t>
+          <t>[-0.779894872963232, 3.5346848274623914]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.12725274380722</v>
+        <v>0.2050304489977517</v>
       </c>
       <c r="S13" t="n">
-        <v>0.12725274380722</v>
+        <v>0.2050304489977517</v>
       </c>
       <c r="T13" t="n">
-        <v>12.10800681536771</v>
+        <v>11.33258458424499</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[7.6264224666041045, 16.589591164131306]</t>
+          <t>[7.433114092993989, 15.232055075496]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.088270636857459e-06</v>
+        <v>5.15198242512227e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>2.088270636857459e-06</v>
+        <v>5.15198242512227e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>15.10702702702716</v>
+        <v>18.27807807807825</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.499469469469513</v>
+        <v>10.2404104104105</v>
       </c>
       <c r="Z13" t="n">
-        <v>25.71458458458481</v>
+        <v>26.31574574574599</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3073132243275325</v>
+        <v>0.1028584561835896</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3073132243275325</v>
+        <v>0.1028584561835896</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.303092253548217</v>
+        <v>6.788910603524855</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.377311422094593, 16.983495929191026]</t>
+          <t>[-1.571194905810449, 15.149016112860158]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2408191962832273</v>
+        <v>0.1089054757421888</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2408191962832273</v>
+        <v>0.1089054757421888</v>
       </c>
       <c r="P14" t="n">
-        <v>1.993763505881811</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-1.0817896624973864, 5.069316674261008]</t>
+          <t>[-0.735868549489501, 5.503290434216354]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.1983019871407681</v>
+        <v>0.1308065752981171</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1983019871407681</v>
+        <v>0.1308065752981171</v>
       </c>
       <c r="T14" t="n">
-        <v>13.76792158027243</v>
+        <v>12.8723403503592</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[8.052778213700748, 19.48306494684411]</t>
+          <t>[8.450652412569642, 17.294028288148755]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.503156898263747e-05</v>
+        <v>4.97807063570832e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.503156898263747e-05</v>
+        <v>4.97807063570832e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>15.89967967967982</v>
+        <v>14.52872872872887</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.499469469469506</v>
+        <v>2.905745745745774</v>
       </c>
       <c r="Z14" t="n">
-        <v>27.29988988989013</v>
+        <v>26.15171171171196</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.8283543683337107</v>
+        <v>0.01405707468886686</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8283543683337107</v>
+        <v>0.01405707468886686</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>2.297290530771774</v>
+        <v>8.820206253289564</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-8.176110042079852, 12.770691103623403]</t>
+          <t>[1.443532213447714, 16.196880293131414]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.6607613376370303</v>
+        <v>0.02018839593372568</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6607613376370303</v>
+        <v>0.02018839593372568</v>
       </c>
       <c r="P15" t="n">
-        <v>2.685605731897581</v>
+        <v>1.918289808498272</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.4528421843012316, 5.824053648096393]</t>
+          <t>[0.8490790955648082, 2.9875005214317367]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.09166519059635925</v>
+        <v>0.0007581990310738806</v>
       </c>
       <c r="S15" t="n">
-        <v>0.09166519059635925</v>
+        <v>0.0007581990310738806</v>
       </c>
       <c r="T15" t="n">
-        <v>15.62415381998397</v>
+        <v>15.09623522680674</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[10.259188601980448, 20.9891190379875]</t>
+          <t>[11.037986746366538, 19.154483707246943]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>4.941466680286055e-07</v>
+        <v>1.908774471814922e-09</v>
       </c>
       <c r="W15" t="n">
-        <v>4.941466680286055e-07</v>
+        <v>1.908774471814922e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>13.33521521521533</v>
+        <v>16.26280280280296</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.701871871871887</v>
+        <v>12.27911911911923</v>
       </c>
       <c r="Z15" t="n">
-        <v>24.96855855855878</v>
+        <v>20.24648648648668</v>
       </c>
     </row>
     <row r="16">
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2936235239350777</v>
+        <v>0.4883019867407613</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2936235239350777</v>
+        <v>0.4883019867407613</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>5.664675973684691</v>
+        <v>3.888707679495516</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[-4.179523779075627, 15.508875726445009]</t>
+          <t>[-4.764423975974786, 12.541839334965818]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.2525771788339264</v>
+        <v>0.3702142033859945</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2525771788339264</v>
+        <v>0.3702142033859945</v>
       </c>
       <c r="P16" t="n">
-        <v>2.220184598032426</v>
+        <v>2.006342455445734</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, 5.358632514231238]</t>
+          <t>[-1.1069475616252324, 5.1196324725167]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.161112022658142</v>
+        <v>0.2009086962765148</v>
       </c>
       <c r="S16" t="n">
-        <v>0.161112022658142</v>
+        <v>0.2009086962765148</v>
       </c>
       <c r="T16" t="n">
-        <v>13.31283174701097</v>
+        <v>13.99969554455978</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[8.251151134247944, 18.374512359774]</t>
+          <t>[9.445045450899652, 18.554345638219914]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.397764401169567e-06</v>
+        <v>1.625722294562593e-07</v>
       </c>
       <c r="W16" t="n">
-        <v>3.397764401169567e-06</v>
+        <v>1.625722294562593e-07</v>
       </c>
       <c r="X16" t="n">
-        <v>15.06040040040053</v>
+        <v>15.93473473473489</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.427057057057088</v>
+        <v>4.335185185185226</v>
       </c>
       <c r="Z16" t="n">
-        <v>26.69374374374398</v>
+        <v>27.53428428428455</v>
       </c>
     </row>
     <row r="17">
@@ -1871,69 +1871,69 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8751803726518448</v>
+        <v>0.2647347585559707</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8751803726518448</v>
+        <v>0.2647347585559707</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.43206101873436</v>
+        <v>5.628967066170055</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>[-5.950659451452596, 8.814781488921316]</t>
+          <t>[-3.825931970984783, 15.083866103324894]</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.6978735124138105</v>
+        <v>0.2367671829098978</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6978735124138105</v>
+        <v>0.2367671829098978</v>
       </c>
       <c r="P17" t="n">
-        <v>2.06923720326535</v>
+        <v>2.509500438002657</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, 5.207685119464163]</t>
+          <t>[-0.6100790538502707, 5.629079929855585]</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>0.1908959470323333</v>
+        <v>0.1121734852553489</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1908959470323333</v>
+        <v>0.1121734852553489</v>
       </c>
       <c r="T17" t="n">
-        <v>12.7712187653864</v>
+        <v>13.42523157310358</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>[8.857910407190769, 16.684527123582026]</t>
+          <t>[8.564137645440056, 18.2863255007671]</t>
         </is>
       </c>
       <c r="V17" t="n">
-        <v>4.388897290041882e-08</v>
+        <v>1.386263980052149e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>4.388897290041882e-08</v>
+        <v>1.386263980052149e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>15.61991991992005</v>
+        <v>14.06006006006019</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.986576576576608</v>
+        <v>2.437077077077099</v>
       </c>
       <c r="Z17" t="n">
-        <v>27.2532632632635</v>
+        <v>25.68304304304329</v>
       </c>
     </row>
     <row r="18">
@@ -1957,69 +1957,69 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1242580701891373</v>
+        <v>0.3033561390013328</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1242580701891373</v>
+        <v>0.3033561390013328</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>6.830057946559354</v>
+        <v>5.788679563040382</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>[-2.3677582755706332, 16.02787416868934]</t>
+          <t>[-4.161493850707258, 15.738852976788023]</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.1417332903210236</v>
+        <v>0.2474687870501728</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1417332903210236</v>
+        <v>0.2474687870501728</v>
       </c>
       <c r="P18" t="n">
-        <v>2.371131992799503</v>
+        <v>2.35855304323558</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 5.497000959434392]</t>
+          <t>[-0.767315923399309, 5.484422009870469]</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>0.1335611932641327</v>
+        <v>0.1355831019938456</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1335611932641327</v>
+        <v>0.1355831019938456</v>
       </c>
       <c r="T18" t="n">
-        <v>13.52434505165954</v>
+        <v>14.47687910789187</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>[8.863058862530721, 18.185631240788368]</t>
+          <t>[9.211650266569137, 19.7421079492146]</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>5.323501164333777e-07</v>
+        <v>1.507233981401512e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>5.323501164333777e-07</v>
+        <v>1.507233981401512e-06</v>
       </c>
       <c r="X18" t="n">
-        <v>14.50088088088101</v>
+        <v>14.6224624624626</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.914164164164191</v>
+        <v>2.976046046046074</v>
       </c>
       <c r="Z18" t="n">
-        <v>26.08759759759782</v>
+        <v>26.26887887887913</v>
       </c>
     </row>
     <row r="19">
@@ -2043,69 +2043,69 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1273275102780871</v>
+        <v>0.5432094240170142</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1273275102780871</v>
+        <v>0.5432094240170142</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>7.368476085373448</v>
+        <v>3.841850204097184</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>[-1.9871035786772069, 16.724055749424103]</t>
+          <t>[-5.525426850036032, 13.209127258230401]</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.1196713394173226</v>
+        <v>0.4131313583143008</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1196713394173226</v>
+        <v>0.4131313583143008</v>
       </c>
       <c r="P19" t="n">
-        <v>-2.050368778919465</v>
+        <v>-2.226474072814387</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[-4.9561061281856995, 0.8553685703467702]</t>
+          <t>[-5.364921989013199, 0.9119738433844251]</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>0.1621497910900773</v>
+        <v>0.1599544868835192</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1621497910900773</v>
+        <v>0.1599544868835192</v>
       </c>
       <c r="T19" t="n">
-        <v>12.09494420088151</v>
+        <v>12.7857988774551</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>[7.089662090171387, 17.100226311591626]</t>
+          <t>[7.888069303363103, 17.683528451547105]</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>1.43073793452686e-05</v>
+        <v>3.879631661929395e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43073793452686e-05</v>
+        <v>3.879631661929395e-06</v>
       </c>
       <c r="X19" t="n">
-        <v>7.600140140140205</v>
+        <v>8.295435435435509</v>
       </c>
       <c r="Y19" t="n">
-        <v>-3.170610610610638</v>
+        <v>-3.397847847847883</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.37089089089105</v>
+        <v>19.9887187187189</v>
       </c>
     </row>
     <row r="20">
@@ -2129,69 +2129,69 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>23.2900000000002</v>
+        <v>23.41000000000022</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4945504401812416</v>
+        <v>0.07823450128269993</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4945504401812416</v>
+        <v>0.07823450128269993</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
-        <v>3.652039334874057</v>
+        <v>6.47393843907661</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>[-4.2547444674652795, 11.558823137213395]</t>
+          <t>[-0.9202456815889253, 13.868122559742146]</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.3571860550053443</v>
+        <v>0.0846158722730832</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3571860550053443</v>
+        <v>0.0846158722730832</v>
       </c>
       <c r="P20" t="n">
-        <v>-3.132158441416851</v>
+        <v>-2.616421509296003</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[-6.264316882833702, 0.0]</t>
+          <t>[-4.654211338651546, -0.5786316799404609]</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.01301720409585272</v>
       </c>
       <c r="S20" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.01301720409585272</v>
       </c>
       <c r="T20" t="n">
-        <v>11.29538310865702</v>
+        <v>12.36549898347919</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>[6.885057189420896, 15.705709027893139]</t>
+          <t>[8.374228691406017, 16.356769275552367]</t>
         </is>
       </c>
       <c r="V20" t="n">
-        <v>5.41965578282344e-06</v>
+        <v>1.373754132671934e-07</v>
       </c>
       <c r="W20" t="n">
-        <v>5.41965578282344e-06</v>
+        <v>1.373754132671934e-07</v>
       </c>
       <c r="X20" t="n">
-        <v>11.61003003003013</v>
+        <v>9.748308308308399</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2.155875875875891</v>
       </c>
       <c r="Z20" t="n">
-        <v>23.22006006006026</v>
+        <v>17.34074074074091</v>
       </c>
     </row>
   </sheetData>
